--- a/out/results_2024-06-23.xlsx
+++ b/out/results_2024-06-23.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G200"/>
+  <dimension ref="A1:G201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6403,6 +6403,35 @@
         <v>12049470</v>
       </c>
     </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>7</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>13-13-14</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>SortingNetworks</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>1</v>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>timeout</t>
+        </is>
+      </c>
+      <c r="F201" t="n">
+        <v>365209</v>
+      </c>
+      <c r="G201" t="n">
+        <v>220098225</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
